--- a/data/trans_dic/P21D_6_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_6_R-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.006482700229503031</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.007314870230202324</v>
+        <v>0.007314870230202322</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.00692285798020168</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001618674292999327</v>
+        <v>0.002047245052853515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002374653928966273</v>
+        <v>0.002227138532018781</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03174595295301127</v>
+        <v>0.03220615541389667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0180725143408377</v>
+        <v>0.01847224900686089</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02232545602113509</v>
+        <v>0.01882661584296243</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.00466279998835393</v>
+        <v>0.004662799988353929</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.008470130000704788</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003533610782536415</v>
+        <v>0.003561880623958236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003259318411502361</v>
+        <v>0.003129639248310064</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0176208230463948</v>
+        <v>0.01552426576288258</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01681920033479171</v>
+        <v>0.01632267243979819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.012748381638068</v>
+        <v>0.01260086918398705</v>
       </c>
     </row>
     <row r="10">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002884864214825265</v>
+        <v>0.002877767471289448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002955561133355848</v>
+        <v>0.002913434582381016</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01805584941681142</v>
+        <v>0.01634562713484851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01943672675969947</v>
+        <v>0.01857512187580226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01403054529303733</v>
+        <v>0.0137787571806653</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001341672998462552</v>
+        <v>0.001344865553232114</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01213722387059702</v>
+        <v>0.01300230323040479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008555180943238453</v>
+        <v>0.009434941400928471</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01684990381084891</v>
+        <v>0.01689593300457955</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03544965732484286</v>
+        <v>0.03745582855030197</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02282637366307637</v>
+        <v>0.02376567804578828</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.01234686822717714</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="19">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>524</v>
+        <v>662</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1452</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9147</v>
+        <v>9279</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5847</v>
+        <v>5976</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13655</v>
+        <v>11515</v>
       </c>
     </row>
     <row r="8">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3168</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8268</v>
+        <v>7284</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8457</v>
+        <v>8207</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12392</v>
+        <v>12248</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2227</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6781</v>
+        <v>6139</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7348</v>
+        <v>7022</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10574</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5956</v>
+        <v>6381</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7906</v>
+        <v>8719</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7302</v>
+        <v>7322</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17396</v>
+        <v>18381</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21094</v>
+        <v>21962</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
     </row>
     <row r="24">
